--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Il15-Il2ra.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Il15-Il2ra.xlsx
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.542102</v>
+        <v>6.314527000000001</v>
       </c>
       <c r="H2">
-        <v>16.626306</v>
+        <v>18.943581</v>
       </c>
       <c r="I2">
-        <v>0.2361826998234217</v>
+        <v>0.2616724966426195</v>
       </c>
       <c r="J2">
-        <v>0.2361826998234217</v>
+        <v>0.2616724966426195</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.3410186666666666</v>
+        <v>0.239548</v>
       </c>
       <c r="N2">
-        <v>1.023056</v>
+        <v>0.7186440000000001</v>
       </c>
       <c r="O2">
-        <v>0.0962612954988499</v>
+        <v>0.2072176292017679</v>
       </c>
       <c r="P2">
-        <v>0.09626129549884992</v>
+        <v>0.2072176292017679</v>
       </c>
       <c r="Q2">
-        <v>1.889960234570667</v>
+        <v>1.512632313796</v>
       </c>
       <c r="R2">
-        <v>17.009642111136</v>
+        <v>13.613690824164</v>
       </c>
       <c r="S2">
-        <v>0.02273525265941856</v>
+        <v>0.0542231543815912</v>
       </c>
       <c r="T2">
-        <v>0.02273525265941856</v>
+        <v>0.0542231543815912</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.542102</v>
+        <v>6.314527000000001</v>
       </c>
       <c r="H3">
-        <v>16.626306</v>
+        <v>18.943581</v>
       </c>
       <c r="I3">
-        <v>0.2361826998234217</v>
+        <v>0.2616724966426195</v>
       </c>
       <c r="J3">
-        <v>0.2361826998234217</v>
+        <v>0.2616724966426195</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -623,22 +623,22 @@
         <v>0.477125</v>
       </c>
       <c r="O3">
-        <v>0.04489360368825241</v>
+        <v>0.1375767575223525</v>
       </c>
       <c r="P3">
-        <v>0.04489360368825242</v>
+        <v>0.1375767575223525</v>
       </c>
       <c r="Q3">
-        <v>0.8814251389166666</v>
+        <v>1.004272898291667</v>
       </c>
       <c r="R3">
-        <v>7.93282625025</v>
+        <v>9.038456084625</v>
       </c>
       <c r="S3">
-        <v>0.01060309252389418</v>
+        <v>0.03600005362087027</v>
       </c>
       <c r="T3">
-        <v>0.01060309252389418</v>
+        <v>0.03600005362087028</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,46 +661,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.542102</v>
+        <v>6.314527000000001</v>
       </c>
       <c r="H4">
-        <v>16.626306</v>
+        <v>18.943581</v>
       </c>
       <c r="I4">
-        <v>0.2361826998234217</v>
+        <v>0.2616724966426195</v>
       </c>
       <c r="J4">
-        <v>0.2361826998234217</v>
+        <v>0.2616724966426195</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>2.550602333333333</v>
+        <v>0.5662826666666666</v>
       </c>
       <c r="N4">
-        <v>7.651807</v>
+        <v>1.698848</v>
       </c>
       <c r="O4">
-        <v>0.7199731536955634</v>
+        <v>0.4898548585031879</v>
       </c>
       <c r="P4">
-        <v>0.7199731536955634</v>
+        <v>0.4898548585031879</v>
       </c>
       <c r="Q4">
-        <v>14.13569829277133</v>
+        <v>3.575807188298667</v>
       </c>
       <c r="R4">
-        <v>127.221284634942</v>
+        <v>32.182264694688</v>
       </c>
       <c r="S4">
-        <v>0.1700452032402015</v>
+        <v>0.1281815438170463</v>
       </c>
       <c r="T4">
-        <v>0.1700452032402015</v>
+        <v>0.1281815438170463</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.542102</v>
+        <v>6.314527000000001</v>
       </c>
       <c r="H5">
-        <v>16.626306</v>
+        <v>18.943581</v>
       </c>
       <c r="I5">
-        <v>0.2361826998234217</v>
+        <v>0.2616724966426195</v>
       </c>
       <c r="J5">
-        <v>0.2361826998234217</v>
+        <v>0.2616724966426195</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -741,28 +741,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.4919726666666667</v>
+        <v>0.191149</v>
       </c>
       <c r="N5">
-        <v>1.475918</v>
+        <v>0.573447</v>
       </c>
       <c r="O5">
-        <v>0.1388719471173343</v>
+        <v>0.1653507547726916</v>
       </c>
       <c r="P5">
-        <v>0.1388719471173343</v>
+        <v>0.1653507547726916</v>
       </c>
       <c r="Q5">
-        <v>2.726562699878667</v>
+        <v>1.207015521523</v>
       </c>
       <c r="R5">
-        <v>24.539064298908</v>
+        <v>10.863139693707</v>
       </c>
       <c r="S5">
-        <v>0.03279915139990746</v>
+        <v>0.04326774482311176</v>
       </c>
       <c r="T5">
-        <v>0.03279915139990747</v>
+        <v>0.04326774482311176</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,40 +791,40 @@
         <v>10.576915</v>
       </c>
       <c r="I6">
-        <v>0.1502489091986426</v>
+        <v>0.1461016137776048</v>
       </c>
       <c r="J6">
-        <v>0.1502489091986426</v>
+        <v>0.1461016137776048</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.3410186666666666</v>
+        <v>0.239548</v>
       </c>
       <c r="N6">
-        <v>1.023056</v>
+        <v>0.7186440000000001</v>
       </c>
       <c r="O6">
-        <v>0.0962612954988499</v>
+        <v>0.2072176292017679</v>
       </c>
       <c r="P6">
-        <v>0.09626129549884992</v>
+        <v>0.2072176292017679</v>
       </c>
       <c r="Q6">
-        <v>1.202308483582222</v>
+        <v>0.8445596114733334</v>
       </c>
       <c r="R6">
-        <v>10.82077635224</v>
+        <v>7.60103650326</v>
       </c>
       <c r="S6">
-        <v>0.0144631546467504</v>
+        <v>0.03027483002954761</v>
       </c>
       <c r="T6">
-        <v>0.0144631546467504</v>
+        <v>0.03027483002954761</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>10.576915</v>
       </c>
       <c r="I7">
-        <v>0.1502489091986426</v>
+        <v>0.1461016137776048</v>
       </c>
       <c r="J7">
-        <v>0.1502489091986426</v>
+        <v>0.1461016137776048</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -871,10 +871,10 @@
         <v>0.477125</v>
       </c>
       <c r="O7">
-        <v>0.04489360368825241</v>
+        <v>0.1375767575223525</v>
       </c>
       <c r="P7">
-        <v>0.04489360368825242</v>
+        <v>0.1375767575223525</v>
       </c>
       <c r="Q7">
         <v>0.5607233965972221</v>
@@ -883,10 +883,10 @@
         <v>5.046510569375</v>
       </c>
       <c r="S7">
-        <v>0.006745214984156082</v>
+        <v>0.02010018629230593</v>
       </c>
       <c r="T7">
-        <v>0.006745214984156083</v>
+        <v>0.02010018629230594</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,40 +915,40 @@
         <v>10.576915</v>
       </c>
       <c r="I8">
-        <v>0.1502489091986426</v>
+        <v>0.1461016137776048</v>
       </c>
       <c r="J8">
-        <v>0.1502489091986426</v>
+        <v>0.1461016137776048</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>2.550602333333333</v>
+        <v>0.5662826666666666</v>
       </c>
       <c r="N8">
-        <v>7.651807</v>
+        <v>1.698848</v>
       </c>
       <c r="O8">
-        <v>0.7199731536955634</v>
+        <v>0.4898548585031879</v>
       </c>
       <c r="P8">
-        <v>0.7199731536955634</v>
+        <v>0.4898548585031879</v>
       </c>
       <c r="Q8">
-        <v>8.992501359489445</v>
+        <v>1.996507877102222</v>
       </c>
       <c r="R8">
-        <v>80.932512235405</v>
+        <v>17.96857089392</v>
       </c>
       <c r="S8">
-        <v>0.108175180995065</v>
+        <v>0.07156858534411599</v>
       </c>
       <c r="T8">
-        <v>0.108175180995065</v>
+        <v>0.071568585344116</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>10.576915</v>
       </c>
       <c r="I9">
-        <v>0.1502489091986426</v>
+        <v>0.1461016137776048</v>
       </c>
       <c r="J9">
-        <v>0.1502489091986426</v>
+        <v>0.1461016137776048</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -989,28 +989,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.4919726666666667</v>
+        <v>0.191149</v>
       </c>
       <c r="N9">
-        <v>1.475918</v>
+        <v>0.573447</v>
       </c>
       <c r="O9">
-        <v>0.1388719471173343</v>
+        <v>0.1653507547726916</v>
       </c>
       <c r="P9">
-        <v>0.1388719471173343</v>
+        <v>0.1653507547726916</v>
       </c>
       <c r="Q9">
-        <v>1.734517692552222</v>
+        <v>0.6739222417783334</v>
       </c>
       <c r="R9">
-        <v>15.61065923297</v>
+        <v>6.065300176005</v>
       </c>
       <c r="S9">
-        <v>0.02086535857267105</v>
+        <v>0.02415801211163523</v>
       </c>
       <c r="T9">
-        <v>0.02086535857267106</v>
+        <v>0.02415801211163523</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.321440333333333</v>
+        <v>0.510814</v>
       </c>
       <c r="H10">
-        <v>3.964321</v>
+        <v>1.532442</v>
       </c>
       <c r="I10">
-        <v>0.05631461593132514</v>
+        <v>0.02116801063642661</v>
       </c>
       <c r="J10">
-        <v>0.05631461593132514</v>
+        <v>0.02116801063642662</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.3410186666666666</v>
+        <v>0.239548</v>
       </c>
       <c r="N10">
-        <v>1.023056</v>
+        <v>0.7186440000000001</v>
       </c>
       <c r="O10">
-        <v>0.0962612954988499</v>
+        <v>0.2072176292017679</v>
       </c>
       <c r="P10">
-        <v>0.09626129549884992</v>
+        <v>0.2072176292017679</v>
       </c>
       <c r="Q10">
-        <v>0.4506358205528888</v>
+        <v>0.122364472072</v>
       </c>
       <c r="R10">
-        <v>4.055722384976</v>
+        <v>1.101280248648</v>
       </c>
       <c r="S10">
-        <v>0.00542091788506953</v>
+        <v>0.004386384978998129</v>
       </c>
       <c r="T10">
-        <v>0.005420917885069531</v>
+        <v>0.00438638497899813</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.321440333333333</v>
+        <v>0.510814</v>
       </c>
       <c r="H11">
-        <v>3.964321</v>
+        <v>1.532442</v>
       </c>
       <c r="I11">
-        <v>0.05631461593132514</v>
+        <v>0.02116801063642661</v>
       </c>
       <c r="J11">
-        <v>0.05631461593132514</v>
+        <v>0.02116801063642662</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1119,22 +1119,22 @@
         <v>0.477125</v>
       </c>
       <c r="O11">
-        <v>0.04489360368825241</v>
+        <v>0.1375767575223525</v>
       </c>
       <c r="P11">
-        <v>0.04489360368825242</v>
+        <v>0.1375767575223525</v>
       </c>
       <c r="Q11">
-        <v>0.2101640730138888</v>
+        <v>0.08124070991666667</v>
       </c>
       <c r="R11">
-        <v>1.891476657125</v>
+        <v>0.7311663892500001</v>
       </c>
       <c r="S11">
-        <v>0.002528166049477056</v>
+        <v>0.002912226266558243</v>
       </c>
       <c r="T11">
-        <v>0.002528166049477057</v>
+        <v>0.002912226266558244</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,46 +1157,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.321440333333333</v>
+        <v>0.510814</v>
       </c>
       <c r="H12">
-        <v>3.964321</v>
+        <v>1.532442</v>
       </c>
       <c r="I12">
-        <v>0.05631461593132514</v>
+        <v>0.02116801063642661</v>
       </c>
       <c r="J12">
-        <v>0.05631461593132514</v>
+        <v>0.02116801063642662</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>2.550602333333333</v>
+        <v>0.5662826666666666</v>
       </c>
       <c r="N12">
-        <v>7.651807</v>
+        <v>1.698848</v>
       </c>
       <c r="O12">
-        <v>0.7199731536955634</v>
+        <v>0.4898548585031879</v>
       </c>
       <c r="P12">
-        <v>0.7199731536955634</v>
+        <v>0.4898548585031879</v>
       </c>
       <c r="Q12">
-        <v>3.370468797560777</v>
+        <v>0.2892651140906666</v>
       </c>
       <c r="R12">
-        <v>30.334219178047</v>
+        <v>2.603386026816</v>
       </c>
       <c r="S12">
-        <v>0.04054501163123057</v>
+        <v>0.01036925285510074</v>
       </c>
       <c r="T12">
-        <v>0.04054501163123057</v>
+        <v>0.01036925285510074</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.321440333333333</v>
+        <v>0.510814</v>
       </c>
       <c r="H13">
-        <v>3.964321</v>
+        <v>1.532442</v>
       </c>
       <c r="I13">
-        <v>0.05631461593132514</v>
+        <v>0.02116801063642661</v>
       </c>
       <c r="J13">
-        <v>0.05631461593132514</v>
+        <v>0.02116801063642662</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1237,28 +1237,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.4919726666666667</v>
+        <v>0.191149</v>
       </c>
       <c r="N13">
-        <v>1.475918</v>
+        <v>0.573447</v>
       </c>
       <c r="O13">
-        <v>0.1388719471173343</v>
+        <v>0.1653507547726916</v>
       </c>
       <c r="P13">
-        <v>0.1388719471173343</v>
+        <v>0.1653507547726916</v>
       </c>
       <c r="Q13">
-        <v>0.6501125246308888</v>
+        <v>0.097641585286</v>
       </c>
       <c r="R13">
-        <v>5.851012721678</v>
+        <v>0.8787742675740001</v>
       </c>
       <c r="S13">
-        <v>0.007820520365547977</v>
+        <v>0.003500146535769505</v>
       </c>
       <c r="T13">
-        <v>0.007820520365547978</v>
+        <v>0.003500146535769506</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,46 +1281,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>13.07613666666666</v>
+        <v>13.78043333333333</v>
       </c>
       <c r="H14">
-        <v>39.22841</v>
+        <v>41.3413</v>
       </c>
       <c r="I14">
-        <v>0.5572537750466106</v>
+        <v>0.571057878943349</v>
       </c>
       <c r="J14">
-        <v>0.5572537750466107</v>
+        <v>0.5710578789433491</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.3410186666666666</v>
+        <v>0.239548</v>
       </c>
       <c r="N14">
-        <v>1.023056</v>
+        <v>0.7186440000000001</v>
       </c>
       <c r="O14">
-        <v>0.0962612954988499</v>
+        <v>0.2072176292017679</v>
       </c>
       <c r="P14">
-        <v>0.09626129549884992</v>
+        <v>0.2072176292017679</v>
       </c>
       <c r="Q14">
-        <v>4.459206691217777</v>
+        <v>3.301075244133334</v>
       </c>
       <c r="R14">
-        <v>40.13286022096</v>
+        <v>29.7096771972</v>
       </c>
       <c r="S14">
-        <v>0.05364197030761141</v>
+        <v>0.118333259811631</v>
       </c>
       <c r="T14">
-        <v>0.05364197030761143</v>
+        <v>0.118333259811631</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>13.07613666666666</v>
+        <v>13.78043333333333</v>
       </c>
       <c r="H15">
-        <v>39.22841</v>
+        <v>41.3413</v>
       </c>
       <c r="I15">
-        <v>0.5572537750466106</v>
+        <v>0.571057878943349</v>
       </c>
       <c r="J15">
-        <v>0.5572537750466107</v>
+        <v>0.5710578789433491</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1367,22 +1367,22 @@
         <v>0.477125</v>
       </c>
       <c r="O15">
-        <v>0.04489360368825241</v>
+        <v>0.1375767575223525</v>
       </c>
       <c r="P15">
-        <v>0.04489360368825242</v>
+        <v>0.1375767575223525</v>
       </c>
       <c r="Q15">
-        <v>2.079650569027777</v>
+        <v>2.191663084722222</v>
       </c>
       <c r="R15">
-        <v>18.71685512125</v>
+        <v>19.7249677625</v>
       </c>
       <c r="S15">
-        <v>0.0250171301307251</v>
+        <v>0.07856429134261807</v>
       </c>
       <c r="T15">
-        <v>0.02501713013072511</v>
+        <v>0.07856429134261809</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,46 +1405,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>13.07613666666666</v>
+        <v>13.78043333333333</v>
       </c>
       <c r="H16">
-        <v>39.22841</v>
+        <v>41.3413</v>
       </c>
       <c r="I16">
-        <v>0.5572537750466106</v>
+        <v>0.571057878943349</v>
       </c>
       <c r="J16">
-        <v>0.5572537750466107</v>
+        <v>0.5710578789433491</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>2.550602333333333</v>
+        <v>0.5662826666666666</v>
       </c>
       <c r="N16">
-        <v>7.651807</v>
+        <v>1.698848</v>
       </c>
       <c r="O16">
-        <v>0.7199731536955634</v>
+        <v>0.4898548585031879</v>
       </c>
       <c r="P16">
-        <v>0.7199731536955634</v>
+        <v>0.4898548585031879</v>
       </c>
       <c r="Q16">
-        <v>33.35202469298555</v>
+        <v>7.803620535822222</v>
       </c>
       <c r="R16">
-        <v>300.16822223687</v>
+        <v>70.2325848224</v>
       </c>
       <c r="S16">
-        <v>0.4012077578290663</v>
+        <v>0.2797354764869248</v>
       </c>
       <c r="T16">
-        <v>0.4012077578290663</v>
+        <v>0.2797354764869249</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>13.07613666666666</v>
+        <v>13.78043333333333</v>
       </c>
       <c r="H17">
-        <v>39.22841</v>
+        <v>41.3413</v>
       </c>
       <c r="I17">
-        <v>0.5572537750466106</v>
+        <v>0.571057878943349</v>
       </c>
       <c r="J17">
-        <v>0.5572537750466107</v>
+        <v>0.5710578789433491</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1485,28 +1485,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.4919726666666667</v>
+        <v>0.191149</v>
       </c>
       <c r="N17">
-        <v>1.475918</v>
+        <v>0.573447</v>
       </c>
       <c r="O17">
-        <v>0.1388719471173343</v>
+        <v>0.1653507547726916</v>
       </c>
       <c r="P17">
-        <v>0.1388719471173343</v>
+        <v>0.1653507547726916</v>
       </c>
       <c r="Q17">
-        <v>6.433101825597777</v>
+        <v>2.634116051233334</v>
       </c>
       <c r="R17">
-        <v>57.89791643038</v>
+        <v>23.7070444611</v>
       </c>
       <c r="S17">
-        <v>0.07738691677920781</v>
+        <v>0.09442485130217512</v>
       </c>
       <c r="T17">
-        <v>0.07738691677920784</v>
+        <v>0.09442485130217514</v>
       </c>
     </row>
   </sheetData>
